--- a/bad information mining/testurl.xlsx
+++ b/bad information mining/testurl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A网络安全中心总文件\a多元多端不良信息检测\代码\正式代码\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A网络安全中心总文件\a多元多端不良信息检测\github\Bad-information-mining\bad information mining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01098659-0DD9-4B2B-A590-ABB31F935CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC865E-311A-48E8-AD19-243623DB13D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{51486E7B-B488-47A7-B5BC-278AA1A36854}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +43,16 @@
     <t>http://www.aishuge.cc/</t>
   </si>
   <si>
-    <t>https://h.x360xs.com/</t>
+    <t>http://www.smskjg.com/</t>
+  </si>
+  <si>
+    <t>https://www.asvmw.cc/</t>
+  </si>
+  <si>
+    <t>http://50166www.cread.com/</t>
+  </si>
+  <si>
+    <t>https://www.yuzcw.com/</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6951CDDB-9F4F-49C0-A3DE-D4433C50FB31}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -435,8 +444,23 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="62" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="109" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
